--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3677.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3677.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.069647668052095</v>
+        <v>5.075949192047119</v>
       </c>
       <c r="B1">
-        <v>1.516961668813151</v>
+        <v>4.009919166564941</v>
       </c>
       <c r="C1">
-        <v>2.808767531048309</v>
+        <v>2.516944169998169</v>
       </c>
       <c r="D1">
-        <v>7.417189026427352</v>
+        <v>1.868634700775146</v>
       </c>
       <c r="E1">
-        <v>1.721410702909374</v>
+        <v>1.119463801383972</v>
       </c>
     </row>
   </sheetData>
